--- a/IEEE751-floatingPoint calculator.xlsx
+++ b/IEEE751-floatingPoint calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajal Sirohi.DESKTOP-RTVGPUA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajal Sirohi.DESKTOP-RTVGPUA\Desktop\meter_NG6400\EM6400NG-Smart-Meter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,15 +618,15 @@
         <v>5</v>
       </c>
       <c r="C7" s="10">
-        <v>17256</v>
+        <v>16646</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="10">
-        <v>36959</v>
+        <v>64337</v>
       </c>
       <c r="J7" t="str">
         <f>DEC2BIN(J9)</f>
-        <v>1000011</v>
+        <v>1000001</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -635,12 +635,12 @@
       </c>
       <c r="C8" s="11" t="str">
         <f xml:space="preserve"> RIGHT("0000"&amp;DEC2HEX(C7),4)</f>
-        <v>4368</v>
+        <v>4106</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="11" t="str">
         <f>RIGHT("0000"&amp;DEC2HEX(E7),4)</f>
-        <v>905F</v>
+        <v>FB51</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -652,19 +652,19 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J9" s="3">
         <f>INT(HEX2DEC(C8)/256)</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3">
         <f>HEX2DEC(C8)-INT(HEX2DEC(C8)/256)*256</f>
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="L9" s="3">
         <f>INT(HEX2DEC(E8)/256)</f>
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="M9" s="3">
         <f>HEX2DEC(E8)-INT(HEX2DEC(E8)/256)*256</f>
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -672,19 +672,19 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J10" s="4" t="str">
         <f>RIGHT("00000000"&amp;DEC2BIN(J9),8)</f>
-        <v>01000011</v>
+        <v>01000001</v>
       </c>
       <c r="K10" s="4" t="str">
         <f>RIGHT("00000000"&amp;DEC2BIN(K9),8)</f>
-        <v>01101000</v>
+        <v>00000110</v>
       </c>
       <c r="L10" s="4" t="str">
         <f>RIGHT("00000000"&amp;DEC2BIN(L9),8)</f>
-        <v>10010000</v>
+        <v>11111011</v>
       </c>
       <c r="M10" s="4" t="str">
         <f>RIGHT("00000000"&amp;DEC2BIN(M9),8)</f>
-        <v>01011111</v>
+        <v>01010001</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -695,7 +695,7 @@
       </c>
       <c r="B11" s="12">
         <f>J14*N21*2^K19</f>
-        <v>232.56394958496094</v>
+        <v>8.4363565444946289</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -744,11 +744,11 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2">
         <f>BIN2DEC(RIGHT(K10,7))*256*256+BIN2DEC(L10)*256+BIN2DEC(M10)</f>
-        <v>6852703</v>
+        <v>457553</v>
       </c>
       <c r="O15" s="2">
         <f>N15</f>
-        <v>6852703</v>
+        <v>457553</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -775,17 +775,17 @@
       <c r="M17" s="2"/>
       <c r="N17" s="6">
         <f>N15/N16+1</f>
-        <v>1.8169058561325073</v>
+        <v>1.0545445680618286</v>
       </c>
       <c r="O17" s="6">
         <f>O15/O16</f>
-        <v>1.6338117122650146</v>
+        <v>0.10908913612365723</v>
       </c>
     </row>
     <row r="18" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J18" s="2" t="str">
         <f>RIGHT(J10,7)&amp;LEFT(K10,1)</f>
-        <v>10000110</v>
+        <v>10000010</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -796,11 +796,11 @@
     <row r="19" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J19" s="2">
         <f xml:space="preserve"> BIN2DEC(J18)</f>
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K19" s="2">
         <f xml:space="preserve"> J19-127</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -824,14 +824,14 @@
       </c>
       <c r="N21" s="2">
         <f>IF(J19&gt;0,N17,O17)</f>
-        <v>1.8169058561325073</v>
+        <v>1.0545445680618286</v>
       </c>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="10:15" x14ac:dyDescent="0.3">
       <c r="J22" s="2" t="str">
         <f>RIGHT(K10,7)&amp;L10&amp;M10</f>
-        <v>11010001001000001011111</v>
+        <v>00001101111101101010001</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
